--- a/1_政策宣傳執情形/法務部/parsed/102年第3季_31249425174.xlsx
+++ b/1_政策宣傳執情形/法務部/parsed/102年第3季_31249425174.xlsx
@@ -481,14 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,393 +503,393 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
-      <c t="s" r="A2">
-        <v>20</v>
-      </c>
-      <c t="s" r="B2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C2">
-        <v>102</v>
-      </c>
-      <c t="s" r="D2">
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c t="n" r="E2">
+      <c r="E2" t="n">
         <v>131800</v>
       </c>
-      <c t="s" r="F2">
-        <v>32</v>
-      </c>
-      <c t="s" r="G2">
-        <v>30</v>
-      </c>
-      <c t="s" r="H2">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
-      <c t="s" r="A3">
-        <v>20</v>
-      </c>
-      <c t="s" r="B3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C3">
-        <v>102</v>
-      </c>
-      <c t="s" r="D3">
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c t="n" r="E3">
+      <c r="E3" t="n">
         <v>65000</v>
       </c>
-      <c t="s" r="F3">
-        <v>32</v>
-      </c>
-      <c t="s" r="G3">
-        <v>30</v>
-      </c>
-      <c t="s" r="H3">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
-      <c t="s" r="A4">
-        <v>20</v>
-      </c>
-      <c t="s" r="B4">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C4">
-        <v>102</v>
-      </c>
-      <c t="s" r="D4">
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c t="n" r="E4">
+      <c r="E4" t="n">
         <v>80000</v>
       </c>
-      <c t="s" r="F4">
-        <v>32</v>
-      </c>
-      <c t="s" r="G4">
-        <v>30</v>
-      </c>
-      <c t="s" r="H4">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
-      <c t="s" r="A5">
-        <v>20</v>
-      </c>
-      <c t="s" r="B5">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C5">
-        <v>102</v>
-      </c>
-      <c t="s" r="D5">
+      <c r="C5" t="n">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c t="n" r="E5">
+      <c r="E5" t="n">
         <v>50000</v>
       </c>
-      <c t="s" r="F5">
-        <v>32</v>
-      </c>
-      <c t="s" r="G5">
-        <v>30</v>
-      </c>
-      <c t="s" r="H5">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
-      <c t="s" r="A6">
-        <v>20</v>
-      </c>
-      <c t="s" r="B6">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c t="n" r="C6">
-        <v>102</v>
-      </c>
-      <c t="s" r="D6">
+      <c r="C6" t="n">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c t="n" r="E6">
+      <c r="E6" t="n">
         <v>50000</v>
       </c>
-      <c t="s" r="F6">
-        <v>32</v>
-      </c>
-      <c t="s" r="G6">
-        <v>30</v>
-      </c>
-      <c t="s" r="H6">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
-      <c t="s" r="A7">
-        <v>20</v>
-      </c>
-      <c t="s" r="B7">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C7">
-        <v>102</v>
-      </c>
-      <c t="s" r="D7">
+      <c r="C7" t="n">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E7">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="F7">
-        <v>32</v>
-      </c>
-      <c t="s" r="G7">
-        <v>30</v>
-      </c>
-      <c t="s" r="H7">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
-      <c t="s" r="A8">
-        <v>20</v>
-      </c>
-      <c t="s" r="B8">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C8">
-        <v>102</v>
-      </c>
-      <c t="s" r="D8">
+      <c r="C8" t="n">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c t="n" r="E8">
+      <c r="E8" t="n">
         <v>17950</v>
       </c>
-      <c t="s" r="F8">
-        <v>32</v>
-      </c>
-      <c t="s" r="G8">
-        <v>30</v>
-      </c>
-      <c t="s" r="H8">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
-      <c t="s" r="A9">
-        <v>20</v>
-      </c>
-      <c t="s" r="B9">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C9">
-        <v>102</v>
-      </c>
-      <c t="s" r="D9">
+      <c r="C9" t="n">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c t="n" r="E9">
+      <c r="E9" t="n">
         <v>6000</v>
       </c>
-      <c t="s" r="F9">
-        <v>32</v>
-      </c>
-      <c t="s" r="G9">
-        <v>30</v>
-      </c>
-      <c t="s" r="H9">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
-      <c t="s" r="A10">
-        <v>20</v>
-      </c>
-      <c t="s" r="B10">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C10">
-        <v>102</v>
-      </c>
-      <c t="s" r="D10">
+      <c r="C10" t="n">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c t="n" r="E10">
+      <c r="E10" t="n">
         <v>131800</v>
       </c>
-      <c t="s" r="F10">
-        <v>32</v>
-      </c>
-      <c t="s" r="G10">
-        <v>30</v>
-      </c>
-      <c t="s" r="H10">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
-      <c t="s" r="A11">
-        <v>20</v>
-      </c>
-      <c t="s" r="B11">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C11">
-        <v>102</v>
-      </c>
-      <c t="s" r="D11">
+      <c r="C11" t="n">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c t="n" r="E11">
+      <c r="E11" t="n">
         <v>131800</v>
       </c>
-      <c t="s" r="F11">
-        <v>32</v>
-      </c>
-      <c t="s" r="G11">
-        <v>30</v>
-      </c>
-      <c t="s" r="H11">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
-      <c t="s" r="A12">
-        <v>20</v>
-      </c>
-      <c t="s" r="B12">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C12">
-        <v>102</v>
-      </c>
-      <c t="s" r="D12">
+      <c r="C12" t="n">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c t="n" r="E12">
+      <c r="E12" t="n">
         <v>131800</v>
       </c>
-      <c t="s" r="F12">
-        <v>32</v>
-      </c>
-      <c t="s" r="G12">
-        <v>30</v>
-      </c>
-      <c t="s" r="H12">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
-      <c t="s" r="A13">
-        <v>20</v>
-      </c>
-      <c t="s" r="B13">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="C13">
-        <v>102</v>
-      </c>
-      <c t="s" r="D13">
+      <c r="C13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c t="n" r="E13">
+      <c r="E13" t="n">
         <v>131800</v>
       </c>
-      <c t="s" r="F13">
-        <v>32</v>
-      </c>
-      <c t="s" r="G13">
-        <v>30</v>
-      </c>
-      <c t="s" r="H13">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
-      <c t="s" r="A14">
-        <v>20</v>
-      </c>
-      <c t="s" r="B14">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c t="n" r="C14">
-        <v>102</v>
-      </c>
-      <c t="s" r="D14">
+      <c r="C14" t="n">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c t="n" r="E14">
+      <c r="E14" t="n">
         <v>43930</v>
       </c>
-      <c t="s" r="F14">
-        <v>32</v>
-      </c>
-      <c t="s" r="G14">
-        <v>30</v>
-      </c>
-      <c t="s" r="H14">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
-      <c t="s" r="A15">
-        <v>20</v>
-      </c>
-      <c t="s" r="B15">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c t="n" r="C15">
-        <v>102</v>
-      </c>
-      <c t="s" r="D15">
+      <c r="C15" t="n">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c t="n" r="E15">
+      <c r="E15" t="n">
         <v>100000</v>
       </c>
-      <c t="s" r="F15">
-        <v>32</v>
-      </c>
-      <c t="s" r="G15">
-        <v>30</v>
-      </c>
-      <c t="s" r="H15">
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
       </c>
     </row>
